--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>008866</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>博时产业新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>24.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>050008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>博时第三产业成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.35</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.37</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>000936</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>博时产业新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000936</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合A</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>73.99</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.35</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>050008</t>
+          <t>008867</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时第三产业成长混合</t>
+          <t>博时产业新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>005878</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>博时产业新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.04</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005878</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合C</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>73.99</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008866</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时产业新趋势灵活配置混合A</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>77.43</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008867</t>
+          <t>005483</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时产业新趋势灵活配置混合C</t>
+          <t>博时创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>77.43</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>000936</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>博时产业新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004677</t>
+          <t>002142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时战略新兴产业混合</t>
+          <t>博时外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>004677</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>博时战略新兴产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000936</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合A</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>68.16</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005878</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合C</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>68.16</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002142</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时外延增长主题灵活配置混合</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>74.45</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>005878</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>博时产业新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42.62</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008135</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宸未来价值先锋混合</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>94.56</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.44</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5977</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3746</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2170,4 +2171,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.49</v>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.19</v>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2554,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>14</v>
       </c>
       <c r="D5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2901,7 +2902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,17 +2913,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2932,14 +2953,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2948,14 +2991,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2964,14 +3029,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.49</v>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2980,14 +3067,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.19</v>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2996,13 +3105,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>14</v>
       </c>
       <c r="D6" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3224,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,17 +3236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3255,14 +3276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3271,14 +3314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3287,14 +3352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3303,14 +3390,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.49</v>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3319,14 +3428,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.19</v>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3335,13 +3466,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>14</v>
       </c>
       <c r="D7" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,585 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008866</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6568</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时第三产业成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5020</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3368</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2226</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000936</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2158</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.49</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0905</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008867</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>77.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1066,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1106,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3332</t>
+          <t>0.4377</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1134,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000936</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合A</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>19.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68.16</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2179</t>
+          <t>0.4128</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1172,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002142</t>
+          <t>007994</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时外延增长主题灵活配置混合</t>
+          <t>华夏中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>26.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.45</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1525</t>
+          <t>0.3703</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1210,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>013233</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>华夏中证500指数智选增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1233</t>
+          <t>0.3658</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1248,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004677</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时战略新兴产业混合</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1164</t>
+          <t>0.1656</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1286,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>007995</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>华夏中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>42.62</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1047</t>
+          <t>0.0769</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1324,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>008851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>78.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0741</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1362,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009726</t>
+          <t>009992</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强A</t>
+          <t>景顺长城量化成长演化混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0665</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1400,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>013234</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>华夏中证500指数智选增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0564</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1438,32 +998,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008135</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宸未来价值先锋混合</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.08</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0285</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1476,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005878</t>
+          <t>006063</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合C</t>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68.16</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1514,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>010157</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>汇安中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1552,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009727</t>
+          <t>010158</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商中证500等权重指数增强C</t>
+          <t>汇安中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1590,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>005295</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>诺德天富灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>86.09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1628,6 +1188,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2170,1048 +2772,6 @@
       </c>
       <c r="H14" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>73.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4596</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000417</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安新精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4227</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011824</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商汇金量化臻选股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009726</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001421</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方量化成长股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>32.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002907</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011825</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浙商汇金量化臻选股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009727</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002906</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4337</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1667</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +2806,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3286,26 +2846,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>74.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4377</t>
+          <t>0.3332</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3314,36 +2874,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>000936</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>博时产业新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.11</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>68.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4128</t>
+          <t>0.2179</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3352,36 +2912,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>002142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>博时外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.64</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>74.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3703</t>
+          <t>0.1525</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3390,36 +2950,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013233</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强A</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3658</t>
+          <t>0.1233</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3428,36 +2988,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>004677</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>博时战略新兴产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>77.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1656</t>
+          <t>0.1164</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3466,36 +3026,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>42.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0769</t>
+          <t>0.1047</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3504,36 +3064,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008851</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.18</t>
+          <t>84.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0672</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -3542,36 +3102,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009992</t>
+          <t>009726</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城量化成长演化混合</t>
+          <t>招商中证500等权重指数增强A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0665</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -3580,36 +3140,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013234</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏中证500指数智选增强C</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -3618,32 +3178,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>008135</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>华宸未来价值先锋混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>84.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3656,36 +3216,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006063</t>
+          <t>005878</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城MSCI中国A股国际通指数增强</t>
+          <t>博时产业新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>68.16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3694,36 +3254,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010157</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强A</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -3732,36 +3292,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010158</t>
+          <t>009727</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强C</t>
+          <t>招商中证500等权重指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3770,36 +3330,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005295</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺德天富灵活配置混合</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>84.97</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3813,144 +3373,584 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>14</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.12</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.49</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>1.19</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>14</v>
       </c>
       <c r="D8" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.12</v>
       </c>
     </row>
@@ -600,6 +617,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1509,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2021,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2229,7 +2870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2779,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3367,7 +4008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
+++ b/数据整理/stocks/A股/上证主板/600380-健康元.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>1.76</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.65</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.49</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>1.19</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>14</v>
       </c>
       <c r="D9" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
         <v>2.12</v>
       </c>
     </row>
@@ -616,7 +633,1599 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易米开鑫价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015664</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易米开鑫价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +2849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1828,7 +3437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2150,7 +3759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2662,7 +4271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2870,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3420,7 +5029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4006,592 +5615,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008866</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6568</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时第三产业成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5020</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3368</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2226</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000936</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2158</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0905</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008867</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>77.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>48.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>